--- a/Documents/Project-Management-Dashboard-FakeOrNot.xlsx
+++ b/Documents/Project-Management-Dashboard-FakeOrNot.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mk194903/Desktop/Manoj/Manoj_Documents/Office_Work/Doc_SanDisk/MS-Admission/Study/Sem-2/200W-29 Engg Graduate Research Devid/HW/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mk194903/Desktop/Projects/ML/FakeOrNot/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C07C30-8C8B-854B-8F86-E7C3913ED084}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1935BF-63D6-7F40-8934-7312EE81ECBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,13 @@
     <sheet name="Project Management Dashboard" sheetId="1" r:id="rId1"/>
     <sheet name="Project Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="82">
   <si>
     <t>RISKS</t>
   </si>
@@ -202,46 +207,76 @@
     <t>Learn More About Dashboards in Smartsheet</t>
   </si>
   <si>
-    <t>Project Plan</t>
-  </si>
-  <si>
-    <t>Abstract Page</t>
-  </si>
-  <si>
-    <t>Introduction</t>
-  </si>
-  <si>
-    <t>Conclusion</t>
-  </si>
-  <si>
-    <t>Table of Content and List Pages</t>
-  </si>
-  <si>
-    <t>Final Review / revision</t>
-  </si>
-  <si>
     <t>Manoj</t>
   </si>
   <si>
-    <t>Title, Copyright, and Committee page</t>
+    <t>Project Abstract</t>
   </si>
   <si>
-    <t>Topic Research</t>
+    <t>Kick-off and Topic</t>
   </si>
   <si>
-    <t>Existing Content Review</t>
+    <t>Workbook 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Document format-Layout </t>
+    <t>Workbook 1</t>
   </si>
   <si>
-    <t>Parallel content review</t>
+    <t>Design Spec</t>
   </si>
   <si>
-    <t>Literature Review - high level</t>
+    <t>Report</t>
   </si>
   <si>
-    <t>Literature Review - low level</t>
+    <t>Environment Setup</t>
+  </si>
+  <si>
+    <t>Data Prep for ML Model</t>
+  </si>
+  <si>
+    <t>Chrome AddOn App Development</t>
+  </si>
+  <si>
+    <t>API Development</t>
+  </si>
+  <si>
+    <t>Web App Development</t>
+  </si>
+  <si>
+    <t>MobileApp Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexa Skill </t>
+  </si>
+  <si>
+    <t>ML Model for Feature Detection</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>IOT integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Live Stream setup for content monitoring </t>
+  </si>
+  <si>
+    <t>Architecture &amp; POC</t>
+  </si>
+  <si>
+    <t>Integration end to end</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Model Boosting</t>
+  </si>
+  <si>
+    <t>Team</t>
   </si>
 </sst>
 </file>
@@ -731,6 +766,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -753,12 +794,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -878,62 +913,86 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Project Data'!$A$4:$A$17</c:f>
+              <c:f>'Project Data'!$A$4:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>Kick-off</c:v>
+                  <c:v>Kick-off and Topic</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Topic Research</c:v>
+                  <c:v>Project Abstract</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Project Plan</c:v>
+                  <c:v>Workbook 1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Existing Content Review</c:v>
+                  <c:v>Workbook 2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Document format-Layout </c:v>
+                  <c:v>Design Spec</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Title, Copyright, and Committee page</c:v>
+                  <c:v>Report</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Abstract Page</c:v>
+                  <c:v>Environment Setup</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Table of Content and List Pages</c:v>
+                  <c:v>Architecture &amp; POC</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Introduction</c:v>
+                  <c:v>Data Prep for ML Model</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Literature Review - high level</c:v>
+                  <c:v>ML Model for Feature Detection</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Literature Review - low level</c:v>
+                  <c:v>API Development</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Conclusion</c:v>
+                  <c:v>Chrome AddOn App Development</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Parallel content review</c:v>
+                  <c:v>Web App Development</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Final Review / revision</c:v>
+                  <c:v>MobileApp Development</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Alexa Skill </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Live Stream setup for content monitoring </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Dashboard</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>IOT integration</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Integration end to end</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Model Boosting</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Demo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Project Data'!$C$4:$C$17</c:f>
+              <c:f>'Project Data'!$C$4:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>43164</c:v>
+                  <c:v>43335</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>43165</c:v>
@@ -971,7 +1030,7 @@
                 <c:pt idx="12">
                   <c:v>43185</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="21">
                   <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
@@ -1257,62 +1316,86 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Project Data'!$A$4:$A$17</c:f>
+              <c:f>'Project Data'!$A$4:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>Kick-off</c:v>
+                  <c:v>Kick-off and Topic</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Topic Research</c:v>
+                  <c:v>Project Abstract</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Project Plan</c:v>
+                  <c:v>Workbook 1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Existing Content Review</c:v>
+                  <c:v>Workbook 2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Document format-Layout </c:v>
+                  <c:v>Design Spec</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Title, Copyright, and Committee page</c:v>
+                  <c:v>Report</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Abstract Page</c:v>
+                  <c:v>Environment Setup</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Table of Content and List Pages</c:v>
+                  <c:v>Architecture &amp; POC</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Introduction</c:v>
+                  <c:v>Data Prep for ML Model</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Literature Review - high level</c:v>
+                  <c:v>ML Model for Feature Detection</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Literature Review - low level</c:v>
+                  <c:v>API Development</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Conclusion</c:v>
+                  <c:v>Chrome AddOn App Development</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Parallel content review</c:v>
+                  <c:v>Web App Development</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Final Review / revision</c:v>
+                  <c:v>MobileApp Development</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Alexa Skill </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Live Stream setup for content monitoring </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Dashboard</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>IOT integration</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Integration end to end</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Model Boosting</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Demo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Project Data'!$E$4:$E$17</c:f>
+              <c:f>'Project Data'!$E$4:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -1350,8 +1433,8 @@
                 <c:pt idx="12">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>4</c:v>
+                <c:pt idx="21">
+                  <c:v>338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1972,62 +2055,86 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Project Data'!$A$4:$A$17</c:f>
+              <c:f>'Project Data'!$A$4:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>Kick-off</c:v>
+                  <c:v>Kick-off and Topic</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Topic Research</c:v>
+                  <c:v>Project Abstract</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Project Plan</c:v>
+                  <c:v>Workbook 1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Existing Content Review</c:v>
+                  <c:v>Workbook 2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Document format-Layout </c:v>
+                  <c:v>Design Spec</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Title, Copyright, and Committee page</c:v>
+                  <c:v>Report</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Abstract Page</c:v>
+                  <c:v>Environment Setup</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Table of Content and List Pages</c:v>
+                  <c:v>Architecture &amp; POC</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Introduction</c:v>
+                  <c:v>Data Prep for ML Model</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Literature Review - high level</c:v>
+                  <c:v>ML Model for Feature Detection</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Literature Review - low level</c:v>
+                  <c:v>API Development</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Conclusion</c:v>
+                  <c:v>Chrome AddOn App Development</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Parallel content review</c:v>
+                  <c:v>Web App Development</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Final Review / revision</c:v>
+                  <c:v>MobileApp Development</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Alexa Skill </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Live Stream setup for content monitoring </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Dashboard</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>IOT integration</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Integration end to end</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Model Boosting</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Demo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Project Data'!$E$4:$E$17</c:f>
+              <c:f>'Project Data'!$E$4:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -2065,8 +2172,8 @@
                 <c:pt idx="12">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>4</c:v>
+                <c:pt idx="21">
+                  <c:v>338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2287,7 +2394,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Project Data'!$B$22</c:f>
+              <c:f>'Project Data'!$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2308,57 +2415,81 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Project Data'!$A$4:$A$17</c:f>
+              <c:f>'Project Data'!$A$4:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>Kick-off</c:v>
+                  <c:v>Kick-off and Topic</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Topic Research</c:v>
+                  <c:v>Project Abstract</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Project Plan</c:v>
+                  <c:v>Workbook 1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Existing Content Review</c:v>
+                  <c:v>Workbook 2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Document format-Layout </c:v>
+                  <c:v>Design Spec</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Title, Copyright, and Committee page</c:v>
+                  <c:v>Report</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Abstract Page</c:v>
+                  <c:v>Environment Setup</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Table of Content and List Pages</c:v>
+                  <c:v>Architecture &amp; POC</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Introduction</c:v>
+                  <c:v>Data Prep for ML Model</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Literature Review - high level</c:v>
+                  <c:v>ML Model for Feature Detection</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Literature Review - low level</c:v>
+                  <c:v>API Development</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Conclusion</c:v>
+                  <c:v>Chrome AddOn App Development</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Parallel content review</c:v>
+                  <c:v>Web App Development</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Final Review / revision</c:v>
+                  <c:v>MobileApp Development</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Alexa Skill </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Live Stream setup for content monitoring </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Dashboard</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>IOT integration</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Integration end to end</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Model Boosting</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Demo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Project Data'!$B$23:$B$36</c:f>
+              <c:f>'Project Data'!$B$31:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2418,7 +2549,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Project Data'!$C$22</c:f>
+              <c:f>'Project Data'!$C$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2439,57 +2570,81 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Project Data'!$A$4:$A$17</c:f>
+              <c:f>'Project Data'!$A$4:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>Kick-off</c:v>
+                  <c:v>Kick-off and Topic</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Topic Research</c:v>
+                  <c:v>Project Abstract</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Project Plan</c:v>
+                  <c:v>Workbook 1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Existing Content Review</c:v>
+                  <c:v>Workbook 2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Document format-Layout </c:v>
+                  <c:v>Design Spec</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Title, Copyright, and Committee page</c:v>
+                  <c:v>Report</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Abstract Page</c:v>
+                  <c:v>Environment Setup</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Table of Content and List Pages</c:v>
+                  <c:v>Architecture &amp; POC</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Introduction</c:v>
+                  <c:v>Data Prep for ML Model</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Literature Review - high level</c:v>
+                  <c:v>ML Model for Feature Detection</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Literature Review - low level</c:v>
+                  <c:v>API Development</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Conclusion</c:v>
+                  <c:v>Chrome AddOn App Development</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Parallel content review</c:v>
+                  <c:v>Web App Development</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Final Review / revision</c:v>
+                  <c:v>MobileApp Development</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Alexa Skill </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Live Stream setup for content monitoring </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Dashboard</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>IOT integration</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Integration end to end</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Model Boosting</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Demo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Project Data'!$C$23:$C$36</c:f>
+              <c:f>'Project Data'!$C$31:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2549,7 +2704,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Project Data'!$D$22</c:f>
+              <c:f>'Project Data'!$D$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2570,57 +2725,81 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Project Data'!$A$4:$A$17</c:f>
+              <c:f>'Project Data'!$A$4:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>Kick-off</c:v>
+                  <c:v>Kick-off and Topic</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Topic Research</c:v>
+                  <c:v>Project Abstract</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Project Plan</c:v>
+                  <c:v>Workbook 1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Existing Content Review</c:v>
+                  <c:v>Workbook 2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Document format-Layout </c:v>
+                  <c:v>Design Spec</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Title, Copyright, and Committee page</c:v>
+                  <c:v>Report</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Abstract Page</c:v>
+                  <c:v>Environment Setup</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Table of Content and List Pages</c:v>
+                  <c:v>Architecture &amp; POC</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Introduction</c:v>
+                  <c:v>Data Prep for ML Model</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Literature Review - high level</c:v>
+                  <c:v>ML Model for Feature Detection</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Literature Review - low level</c:v>
+                  <c:v>API Development</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Conclusion</c:v>
+                  <c:v>Chrome AddOn App Development</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Parallel content review</c:v>
+                  <c:v>Web App Development</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Final Review / revision</c:v>
+                  <c:v>MobileApp Development</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Alexa Skill </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Live Stream setup for content monitoring </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Dashboard</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>IOT integration</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Integration end to end</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Model Boosting</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Demo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Project Data'!$D$23:$D$36</c:f>
+              <c:f>'Project Data'!$D$31:$D$44</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="14"/>
@@ -3082,7 +3261,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Project Data'!$B$22:$D$22</c:f>
+              <c:f>'Project Data'!$B$30:$D$30</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3099,7 +3278,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Project Data'!$B$37:$D$37</c:f>
+              <c:f>'Project Data'!$B$45:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3353,57 +3532,81 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Project Data'!$A$4:$A$17</c:f>
+              <c:f>'Project Data'!$A$4:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>Kick-off</c:v>
+                  <c:v>Kick-off and Topic</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Topic Research</c:v>
+                  <c:v>Project Abstract</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Project Plan</c:v>
+                  <c:v>Workbook 1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Existing Content Review</c:v>
+                  <c:v>Workbook 2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Document format-Layout </c:v>
+                  <c:v>Design Spec</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Title, Copyright, and Committee page</c:v>
+                  <c:v>Report</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Abstract Page</c:v>
+                  <c:v>Environment Setup</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Table of Content and List Pages</c:v>
+                  <c:v>Architecture &amp; POC</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Introduction</c:v>
+                  <c:v>Data Prep for ML Model</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Literature Review - high level</c:v>
+                  <c:v>ML Model for Feature Detection</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Literature Review - low level</c:v>
+                  <c:v>API Development</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Conclusion</c:v>
+                  <c:v>Chrome AddOn App Development</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Parallel content review</c:v>
+                  <c:v>Web App Development</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Final Review / revision</c:v>
+                  <c:v>MobileApp Development</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Alexa Skill </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Live Stream setup for content monitoring </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Dashboard</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>IOT integration</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Integration end to end</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Model Boosting</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Demo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Project Data'!$E$23:$E$36</c:f>
+              <c:f>'Project Data'!$E$31:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="14"/>
@@ -3476,57 +3679,81 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Project Data'!$A$4:$A$17</c:f>
+              <c:f>'Project Data'!$A$4:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>Kick-off</c:v>
+                  <c:v>Kick-off and Topic</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Topic Research</c:v>
+                  <c:v>Project Abstract</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Project Plan</c:v>
+                  <c:v>Workbook 1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Existing Content Review</c:v>
+                  <c:v>Workbook 2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Document format-Layout </c:v>
+                  <c:v>Design Spec</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Title, Copyright, and Committee page</c:v>
+                  <c:v>Report</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Abstract Page</c:v>
+                  <c:v>Environment Setup</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Table of Content and List Pages</c:v>
+                  <c:v>Architecture &amp; POC</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Introduction</c:v>
+                  <c:v>Data Prep for ML Model</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Literature Review - high level</c:v>
+                  <c:v>ML Model for Feature Detection</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Literature Review - low level</c:v>
+                  <c:v>API Development</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Conclusion</c:v>
+                  <c:v>Chrome AddOn App Development</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Parallel content review</c:v>
+                  <c:v>Web App Development</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Final Review / revision</c:v>
+                  <c:v>MobileApp Development</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Alexa Skill </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Live Stream setup for content monitoring </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Dashboard</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>IOT integration</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Integration end to end</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Model Boosting</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Demo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Project Data'!$F$23:$F$36</c:f>
+              <c:f>'Project Data'!$F$31:$F$44</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="14"/>
@@ -3599,57 +3826,81 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Project Data'!$A$4:$A$17</c:f>
+              <c:f>'Project Data'!$A$4:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>Kick-off</c:v>
+                  <c:v>Kick-off and Topic</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Topic Research</c:v>
+                  <c:v>Project Abstract</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Project Plan</c:v>
+                  <c:v>Workbook 1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Existing Content Review</c:v>
+                  <c:v>Workbook 2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Document format-Layout </c:v>
+                  <c:v>Design Spec</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Title, Copyright, and Committee page</c:v>
+                  <c:v>Report</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Abstract Page</c:v>
+                  <c:v>Environment Setup</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Table of Content and List Pages</c:v>
+                  <c:v>Architecture &amp; POC</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Introduction</c:v>
+                  <c:v>Data Prep for ML Model</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Literature Review - high level</c:v>
+                  <c:v>ML Model for Feature Detection</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Literature Review - low level</c:v>
+                  <c:v>API Development</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Conclusion</c:v>
+                  <c:v>Chrome AddOn App Development</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Parallel content review</c:v>
+                  <c:v>Web App Development</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Final Review / revision</c:v>
+                  <c:v>MobileApp Development</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Alexa Skill </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Live Stream setup for content monitoring </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Dashboard</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>IOT integration</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Integration end to end</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Model Boosting</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Demo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Project Data'!$G$23:$G$36</c:f>
+              <c:f>'Project Data'!$G$31:$G$44</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="14"/>
@@ -4121,7 +4372,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Project Data'!$E$21:$G$22</c:f>
+              <c:f>'Project Data'!$E$29:$G$30</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="3"/>
                 <c:lvl>
@@ -4145,7 +4396,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Project Data'!$E$37:$G$37</c:f>
+              <c:f>'Project Data'!$E$45:$G$45</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5170,8 +5421,8 @@
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>977900</xdr:colOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>461819</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
@@ -5208,10 +5459,10 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>969817</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>23090</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5392,16 +5643,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>176645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>965200</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>87746</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>176645</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5520,14 +5771,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5537,7 +5788,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -6013,8 +6264,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6023,112 +6274,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
     </row>
     <row r="47" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
     </row>
     <row r="73" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="42" t="s">
+      <c r="A73" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="42"/>
-      <c r="L73" s="42"/>
-      <c r="M73" s="42"/>
-      <c r="N73" s="42"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="44"/>
+      <c r="L73" s="44"/>
+      <c r="M73" s="44"/>
+      <c r="N73" s="44"/>
     </row>
     <row r="113" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="44" t="s">
+      <c r="A113" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B113" s="44"/>
-      <c r="C113" s="44"/>
-      <c r="D113" s="44"/>
-      <c r="E113" s="44"/>
-      <c r="F113" s="44"/>
-      <c r="G113" s="44"/>
-      <c r="H113" s="44"/>
-      <c r="I113" s="44"/>
-      <c r="J113" s="44"/>
-      <c r="K113" s="44"/>
-      <c r="L113" s="44"/>
-      <c r="M113" s="44"/>
-      <c r="N113" s="44"/>
+      <c r="B113" s="46"/>
+      <c r="C113" s="46"/>
+      <c r="D113" s="46"/>
+      <c r="E113" s="46"/>
+      <c r="F113" s="46"/>
+      <c r="G113" s="46"/>
+      <c r="H113" s="46"/>
+      <c r="I113" s="46"/>
+      <c r="J113" s="46"/>
+      <c r="K113" s="46"/>
+      <c r="L113" s="46"/>
+      <c r="M113" s="46"/>
+      <c r="N113" s="46"/>
     </row>
     <row r="153" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="43" t="s">
+      <c r="A153" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B153" s="43"/>
-      <c r="C153" s="43"/>
-      <c r="D153" s="43"/>
-      <c r="E153" s="43"/>
-      <c r="F153" s="43"/>
-      <c r="G153" s="43"/>
-      <c r="H153" s="43"/>
-      <c r="I153" s="43"/>
-      <c r="J153" s="43"/>
-      <c r="K153" s="43"/>
-      <c r="L153" s="43"/>
-      <c r="M153" s="43"/>
-      <c r="N153" s="43"/>
+      <c r="B153" s="45"/>
+      <c r="C153" s="45"/>
+      <c r="D153" s="45"/>
+      <c r="E153" s="45"/>
+      <c r="F153" s="45"/>
+      <c r="G153" s="45"/>
+      <c r="H153" s="45"/>
+      <c r="I153" s="45"/>
+      <c r="J153" s="45"/>
+      <c r="K153" s="45"/>
+      <c r="L153" s="45"/>
+      <c r="M153" s="45"/>
+      <c r="N153" s="45"/>
     </row>
     <row r="154" spans="1:14" s="16" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="15"/>
@@ -6143,11 +6394,11 @@
       <c r="J154" s="15"/>
     </row>
     <row r="155" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="45" t="s">
+      <c r="A155" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B155" s="45"/>
-      <c r="C155" s="45"/>
+      <c r="B155" s="47"/>
+      <c r="C155" s="47"/>
       <c r="D155" s="17" t="s">
         <v>56</v>
       </c>
@@ -6166,20 +6417,20 @@
       <c r="I155" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J155" s="45" t="s">
+      <c r="J155" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="K155" s="45"/>
-      <c r="L155" s="45"/>
-      <c r="M155" s="45"/>
-      <c r="N155" s="45"/>
+      <c r="K155" s="47"/>
+      <c r="L155" s="47"/>
+      <c r="M155" s="47"/>
+      <c r="N155" s="47"/>
     </row>
     <row r="156" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="38" t="s">
+      <c r="A156" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B156" s="38"/>
-      <c r="C156" s="38"/>
+      <c r="B156" s="40"/>
+      <c r="C156" s="40"/>
       <c r="D156" s="35" t="s">
         <v>38</v>
       </c>
@@ -6188,18 +6439,18 @@
       <c r="G156" s="37"/>
       <c r="H156" s="37"/>
       <c r="I156" s="37"/>
-      <c r="J156" s="47"/>
-      <c r="K156" s="47"/>
-      <c r="L156" s="47"/>
-      <c r="M156" s="47"/>
-      <c r="N156" s="47"/>
+      <c r="J156" s="38"/>
+      <c r="K156" s="38"/>
+      <c r="L156" s="38"/>
+      <c r="M156" s="38"/>
+      <c r="N156" s="38"/>
     </row>
     <row r="157" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="38" t="s">
+      <c r="A157" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B157" s="38"/>
-      <c r="C157" s="38"/>
+      <c r="B157" s="40"/>
+      <c r="C157" s="40"/>
       <c r="D157" s="35" t="s">
         <v>39</v>
       </c>
@@ -6208,18 +6459,18 @@
       <c r="G157" s="37"/>
       <c r="H157" s="37"/>
       <c r="I157" s="37"/>
-      <c r="J157" s="47"/>
-      <c r="K157" s="47"/>
-      <c r="L157" s="47"/>
-      <c r="M157" s="47"/>
-      <c r="N157" s="47"/>
+      <c r="J157" s="38"/>
+      <c r="K157" s="38"/>
+      <c r="L157" s="38"/>
+      <c r="M157" s="38"/>
+      <c r="N157" s="38"/>
     </row>
     <row r="158" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="38" t="s">
+      <c r="A158" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B158" s="38"/>
-      <c r="C158" s="38"/>
+      <c r="B158" s="40"/>
+      <c r="C158" s="40"/>
       <c r="D158" s="35" t="s">
         <v>40</v>
       </c>
@@ -6228,18 +6479,18 @@
       <c r="G158" s="37"/>
       <c r="H158" s="37"/>
       <c r="I158" s="37"/>
-      <c r="J158" s="47"/>
-      <c r="K158" s="47"/>
-      <c r="L158" s="47"/>
-      <c r="M158" s="47"/>
-      <c r="N158" s="47"/>
+      <c r="J158" s="38"/>
+      <c r="K158" s="38"/>
+      <c r="L158" s="38"/>
+      <c r="M158" s="38"/>
+      <c r="N158" s="38"/>
     </row>
     <row r="159" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="38" t="s">
+      <c r="A159" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B159" s="38"/>
-      <c r="C159" s="38"/>
+      <c r="B159" s="40"/>
+      <c r="C159" s="40"/>
       <c r="D159" s="35" t="s">
         <v>41</v>
       </c>
@@ -6248,18 +6499,18 @@
       <c r="G159" s="37"/>
       <c r="H159" s="37"/>
       <c r="I159" s="37"/>
-      <c r="J159" s="47"/>
-      <c r="K159" s="47"/>
-      <c r="L159" s="47"/>
-      <c r="M159" s="47"/>
-      <c r="N159" s="47"/>
+      <c r="J159" s="38"/>
+      <c r="K159" s="38"/>
+      <c r="L159" s="38"/>
+      <c r="M159" s="38"/>
+      <c r="N159" s="38"/>
     </row>
     <row r="160" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="38" t="s">
+      <c r="A160" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B160" s="38"/>
-      <c r="C160" s="38"/>
+      <c r="B160" s="40"/>
+      <c r="C160" s="40"/>
       <c r="D160" s="35" t="s">
         <v>38</v>
       </c>
@@ -6268,18 +6519,18 @@
       <c r="G160" s="37"/>
       <c r="H160" s="37"/>
       <c r="I160" s="37"/>
-      <c r="J160" s="47"/>
-      <c r="K160" s="47"/>
-      <c r="L160" s="47"/>
-      <c r="M160" s="47"/>
-      <c r="N160" s="47"/>
+      <c r="J160" s="38"/>
+      <c r="K160" s="38"/>
+      <c r="L160" s="38"/>
+      <c r="M160" s="38"/>
+      <c r="N160" s="38"/>
     </row>
     <row r="161" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="38" t="s">
+      <c r="A161" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B161" s="38"/>
-      <c r="C161" s="38"/>
+      <c r="B161" s="40"/>
+      <c r="C161" s="40"/>
       <c r="D161" s="35" t="s">
         <v>39</v>
       </c>
@@ -6288,18 +6539,18 @@
       <c r="G161" s="37"/>
       <c r="H161" s="37"/>
       <c r="I161" s="37"/>
-      <c r="J161" s="47"/>
-      <c r="K161" s="47"/>
-      <c r="L161" s="47"/>
-      <c r="M161" s="47"/>
-      <c r="N161" s="47"/>
+      <c r="J161" s="38"/>
+      <c r="K161" s="38"/>
+      <c r="L161" s="38"/>
+      <c r="M161" s="38"/>
+      <c r="N161" s="38"/>
     </row>
     <row r="162" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="38" t="s">
+      <c r="A162" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B162" s="38"/>
-      <c r="C162" s="38"/>
+      <c r="B162" s="40"/>
+      <c r="C162" s="40"/>
       <c r="D162" s="35" t="s">
         <v>40</v>
       </c>
@@ -6308,18 +6559,18 @@
       <c r="G162" s="37"/>
       <c r="H162" s="37"/>
       <c r="I162" s="37"/>
-      <c r="J162" s="47"/>
-      <c r="K162" s="47"/>
-      <c r="L162" s="47"/>
-      <c r="M162" s="47"/>
-      <c r="N162" s="47"/>
+      <c r="J162" s="38"/>
+      <c r="K162" s="38"/>
+      <c r="L162" s="38"/>
+      <c r="M162" s="38"/>
+      <c r="N162" s="38"/>
     </row>
     <row r="163" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="38" t="s">
+      <c r="A163" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B163" s="38"/>
-      <c r="C163" s="38"/>
+      <c r="B163" s="40"/>
+      <c r="C163" s="40"/>
       <c r="D163" s="35" t="s">
         <v>41</v>
       </c>
@@ -6328,18 +6579,18 @@
       <c r="G163" s="37"/>
       <c r="H163" s="37"/>
       <c r="I163" s="37"/>
-      <c r="J163" s="47"/>
-      <c r="K163" s="47"/>
-      <c r="L163" s="47"/>
-      <c r="M163" s="47"/>
-      <c r="N163" s="47"/>
+      <c r="J163" s="38"/>
+      <c r="K163" s="38"/>
+      <c r="L163" s="38"/>
+      <c r="M163" s="38"/>
+      <c r="N163" s="38"/>
     </row>
     <row r="164" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="38" t="s">
+      <c r="A164" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B164" s="38"/>
-      <c r="C164" s="38"/>
+      <c r="B164" s="40"/>
+      <c r="C164" s="40"/>
       <c r="D164" s="35" t="s">
         <v>42</v>
       </c>
@@ -6348,18 +6599,18 @@
       <c r="G164" s="37"/>
       <c r="H164" s="37"/>
       <c r="I164" s="37"/>
-      <c r="J164" s="47"/>
-      <c r="K164" s="47"/>
-      <c r="L164" s="47"/>
-      <c r="M164" s="47"/>
-      <c r="N164" s="47"/>
+      <c r="J164" s="38"/>
+      <c r="K164" s="38"/>
+      <c r="L164" s="38"/>
+      <c r="M164" s="38"/>
+      <c r="N164" s="38"/>
     </row>
     <row r="165" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="38" t="s">
+      <c r="A165" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B165" s="38"/>
-      <c r="C165" s="38"/>
+      <c r="B165" s="40"/>
+      <c r="C165" s="40"/>
       <c r="D165" s="35" t="s">
         <v>43</v>
       </c>
@@ -6368,18 +6619,18 @@
       <c r="G165" s="37"/>
       <c r="H165" s="37"/>
       <c r="I165" s="37"/>
-      <c r="J165" s="47"/>
-      <c r="K165" s="47"/>
-      <c r="L165" s="47"/>
-      <c r="M165" s="47"/>
-      <c r="N165" s="47"/>
+      <c r="J165" s="38"/>
+      <c r="K165" s="38"/>
+      <c r="L165" s="38"/>
+      <c r="M165" s="38"/>
+      <c r="N165" s="38"/>
     </row>
     <row r="166" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="38" t="s">
+      <c r="A166" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B166" s="38"/>
-      <c r="C166" s="38"/>
+      <c r="B166" s="40"/>
+      <c r="C166" s="40"/>
       <c r="D166" s="35" t="s">
         <v>42</v>
       </c>
@@ -6388,18 +6639,18 @@
       <c r="G166" s="37"/>
       <c r="H166" s="37"/>
       <c r="I166" s="37"/>
-      <c r="J166" s="47"/>
-      <c r="K166" s="47"/>
-      <c r="L166" s="47"/>
-      <c r="M166" s="47"/>
-      <c r="N166" s="47"/>
+      <c r="J166" s="38"/>
+      <c r="K166" s="38"/>
+      <c r="L166" s="38"/>
+      <c r="M166" s="38"/>
+      <c r="N166" s="38"/>
     </row>
     <row r="167" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="38" t="s">
+      <c r="A167" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B167" s="38"/>
-      <c r="C167" s="38"/>
+      <c r="B167" s="40"/>
+      <c r="C167" s="40"/>
       <c r="D167" s="35" t="s">
         <v>43</v>
       </c>
@@ -6408,18 +6659,18 @@
       <c r="G167" s="37"/>
       <c r="H167" s="37"/>
       <c r="I167" s="37"/>
-      <c r="J167" s="47"/>
-      <c r="K167" s="47"/>
-      <c r="L167" s="47"/>
-      <c r="M167" s="47"/>
-      <c r="N167" s="47"/>
+      <c r="J167" s="38"/>
+      <c r="K167" s="38"/>
+      <c r="L167" s="38"/>
+      <c r="M167" s="38"/>
+      <c r="N167" s="38"/>
     </row>
     <row r="168" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="38" t="s">
+      <c r="A168" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B168" s="38"/>
-      <c r="C168" s="38"/>
+      <c r="B168" s="40"/>
+      <c r="C168" s="40"/>
       <c r="D168" s="35" t="s">
         <v>42</v>
       </c>
@@ -6428,18 +6679,18 @@
       <c r="G168" s="37"/>
       <c r="H168" s="37"/>
       <c r="I168" s="37"/>
-      <c r="J168" s="47"/>
-      <c r="K168" s="47"/>
-      <c r="L168" s="47"/>
-      <c r="M168" s="47"/>
-      <c r="N168" s="47"/>
+      <c r="J168" s="38"/>
+      <c r="K168" s="38"/>
+      <c r="L168" s="38"/>
+      <c r="M168" s="38"/>
+      <c r="N168" s="38"/>
     </row>
     <row r="169" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="38" t="s">
+      <c r="A169" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B169" s="38"/>
-      <c r="C169" s="38"/>
+      <c r="B169" s="40"/>
+      <c r="C169" s="40"/>
       <c r="D169" s="35" t="s">
         <v>38</v>
       </c>
@@ -6448,101 +6699,112 @@
       <c r="G169" s="37"/>
       <c r="H169" s="37"/>
       <c r="I169" s="37"/>
-      <c r="J169" s="47"/>
-      <c r="K169" s="47"/>
-      <c r="L169" s="47"/>
-      <c r="M169" s="47"/>
-      <c r="N169" s="47"/>
+      <c r="J169" s="38"/>
+      <c r="K169" s="38"/>
+      <c r="L169" s="38"/>
+      <c r="M169" s="38"/>
+      <c r="N169" s="38"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A171" s="46" t="s">
+      <c r="A171" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B171" s="46"/>
-      <c r="C171" s="46"/>
-      <c r="D171" s="46"/>
-      <c r="E171" s="46"/>
-      <c r="F171" s="46"/>
-      <c r="G171" s="46"/>
-      <c r="H171" s="46"/>
-      <c r="I171" s="46"/>
-      <c r="J171" s="46"/>
-      <c r="K171" s="46"/>
-      <c r="L171" s="46"/>
-      <c r="M171" s="46"/>
-      <c r="N171" s="46"/>
+      <c r="B171" s="39"/>
+      <c r="C171" s="39"/>
+      <c r="D171" s="39"/>
+      <c r="E171" s="39"/>
+      <c r="F171" s="39"/>
+      <c r="G171" s="39"/>
+      <c r="H171" s="39"/>
+      <c r="I171" s="39"/>
+      <c r="J171" s="39"/>
+      <c r="K171" s="39"/>
+      <c r="L171" s="39"/>
+      <c r="M171" s="39"/>
+      <c r="N171" s="39"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A172" s="46"/>
-      <c r="B172" s="46"/>
-      <c r="C172" s="46"/>
-      <c r="D172" s="46"/>
-      <c r="E172" s="46"/>
-      <c r="F172" s="46"/>
-      <c r="G172" s="46"/>
-      <c r="H172" s="46"/>
-      <c r="I172" s="46"/>
-      <c r="J172" s="46"/>
-      <c r="K172" s="46"/>
-      <c r="L172" s="46"/>
-      <c r="M172" s="46"/>
-      <c r="N172" s="46"/>
+      <c r="A172" s="39"/>
+      <c r="B172" s="39"/>
+      <c r="C172" s="39"/>
+      <c r="D172" s="39"/>
+      <c r="E172" s="39"/>
+      <c r="F172" s="39"/>
+      <c r="G172" s="39"/>
+      <c r="H172" s="39"/>
+      <c r="I172" s="39"/>
+      <c r="J172" s="39"/>
+      <c r="K172" s="39"/>
+      <c r="L172" s="39"/>
+      <c r="M172" s="39"/>
+      <c r="N172" s="39"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A173" s="46"/>
-      <c r="B173" s="46"/>
-      <c r="C173" s="46"/>
-      <c r="D173" s="46"/>
-      <c r="E173" s="46"/>
-      <c r="F173" s="46"/>
-      <c r="G173" s="46"/>
-      <c r="H173" s="46"/>
-      <c r="I173" s="46"/>
-      <c r="J173" s="46"/>
-      <c r="K173" s="46"/>
-      <c r="L173" s="46"/>
-      <c r="M173" s="46"/>
-      <c r="N173" s="46"/>
+      <c r="A173" s="39"/>
+      <c r="B173" s="39"/>
+      <c r="C173" s="39"/>
+      <c r="D173" s="39"/>
+      <c r="E173" s="39"/>
+      <c r="F173" s="39"/>
+      <c r="G173" s="39"/>
+      <c r="H173" s="39"/>
+      <c r="I173" s="39"/>
+      <c r="J173" s="39"/>
+      <c r="K173" s="39"/>
+      <c r="L173" s="39"/>
+      <c r="M173" s="39"/>
+      <c r="N173" s="39"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A174" s="46"/>
-      <c r="B174" s="46"/>
-      <c r="C174" s="46"/>
-      <c r="D174" s="46"/>
-      <c r="E174" s="46"/>
-      <c r="F174" s="46"/>
-      <c r="G174" s="46"/>
-      <c r="H174" s="46"/>
-      <c r="I174" s="46"/>
-      <c r="J174" s="46"/>
-      <c r="K174" s="46"/>
-      <c r="L174" s="46"/>
-      <c r="M174" s="46"/>
-      <c r="N174" s="46"/>
+      <c r="A174" s="39"/>
+      <c r="B174" s="39"/>
+      <c r="C174" s="39"/>
+      <c r="D174" s="39"/>
+      <c r="E174" s="39"/>
+      <c r="F174" s="39"/>
+      <c r="G174" s="39"/>
+      <c r="H174" s="39"/>
+      <c r="I174" s="39"/>
+      <c r="J174" s="39"/>
+      <c r="K174" s="39"/>
+      <c r="L174" s="39"/>
+      <c r="M174" s="39"/>
+      <c r="N174" s="39"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A175" s="46"/>
-      <c r="B175" s="46"/>
-      <c r="C175" s="46"/>
-      <c r="D175" s="46"/>
-      <c r="E175" s="46"/>
-      <c r="F175" s="46"/>
-      <c r="G175" s="46"/>
-      <c r="H175" s="46"/>
-      <c r="I175" s="46"/>
-      <c r="J175" s="46"/>
-      <c r="K175" s="46"/>
-      <c r="L175" s="46"/>
-      <c r="M175" s="46"/>
-      <c r="N175" s="46"/>
+      <c r="A175" s="39"/>
+      <c r="B175" s="39"/>
+      <c r="C175" s="39"/>
+      <c r="D175" s="39"/>
+      <c r="E175" s="39"/>
+      <c r="F175" s="39"/>
+      <c r="G175" s="39"/>
+      <c r="H175" s="39"/>
+      <c r="I175" s="39"/>
+      <c r="J175" s="39"/>
+      <c r="K175" s="39"/>
+      <c r="L175" s="39"/>
+      <c r="M175" s="39"/>
+      <c r="N175" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="J156:N156"/>
-    <mergeCell ref="J157:N157"/>
-    <mergeCell ref="J158:N158"/>
-    <mergeCell ref="J159:N159"/>
-    <mergeCell ref="J160:N160"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A167:C167"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A47:N47"/>
+    <mergeCell ref="A73:N73"/>
+    <mergeCell ref="A153:N153"/>
+    <mergeCell ref="A113:N113"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A156:C156"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="J155:N155"/>
     <mergeCell ref="A171:N175"/>
     <mergeCell ref="A160:C160"/>
     <mergeCell ref="A161:C161"/>
@@ -6559,22 +6821,11 @@
     <mergeCell ref="J167:N167"/>
     <mergeCell ref="J168:N168"/>
     <mergeCell ref="J169:N169"/>
-    <mergeCell ref="A165:C165"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A167:C167"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A47:N47"/>
-    <mergeCell ref="A73:N73"/>
-    <mergeCell ref="A153:N153"/>
-    <mergeCell ref="A113:N113"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="A156:C156"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="J155:N155"/>
+    <mergeCell ref="J156:N156"/>
+    <mergeCell ref="J157:N157"/>
+    <mergeCell ref="J158:N158"/>
+    <mergeCell ref="J159:N159"/>
+    <mergeCell ref="J160:N160"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
@@ -6663,10 +6914,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:T77"/>
+  <dimension ref="A1:T85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6754,20 +7005,20 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C4" s="27">
-        <v>43164</v>
+        <v>43335</v>
       </c>
       <c r="D4" s="27">
-        <v>43165</v>
+        <v>43342</v>
       </c>
       <c r="E4" s="6">
         <f>D4-C4</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>45</v>
@@ -6789,10 +7040,10 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C5" s="28">
         <v>43165</v>
@@ -6801,7 +7052,7 @@
         <v>43166</v>
       </c>
       <c r="E5" s="7">
-        <f t="shared" ref="E5:E17" si="0">D5-C5</f>
+        <f t="shared" ref="E5:E25" si="0">D5-C5</f>
         <v>1</v>
       </c>
       <c r="F5" s="30" t="s">
@@ -6824,10 +7075,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C6" s="27">
         <v>43166</v>
@@ -6839,8 +7090,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F6" s="30" t="s">
-        <v>45</v>
+      <c r="F6" s="32" t="s">
+        <v>47</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>47</v>
@@ -6859,10 +7110,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C7" s="28">
         <v>43167</v>
@@ -6874,8 +7125,8 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F7" s="30" t="s">
-        <v>45</v>
+      <c r="F7" s="33" t="s">
+        <v>48</v>
       </c>
       <c r="H7" s="33" t="s">
         <v>48</v>
@@ -6894,10 +7145,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C8" s="27">
         <v>43169</v>
@@ -6906,11 +7157,11 @@
         <v>43170</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" si="0"/>
+        <f>D8-C8</f>
         <v>1</v>
       </c>
-      <c r="F8" s="30" t="s">
-        <v>45</v>
+      <c r="F8" s="33" t="s">
+        <v>48</v>
       </c>
       <c r="J8" s="26"/>
       <c r="P8" s="1"/>
@@ -6920,10 +7171,10 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C9" s="28">
         <v>43170</v>
@@ -6935,8 +7186,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F9" s="30" t="s">
-        <v>45</v>
+      <c r="F9" s="33" t="s">
+        <v>48</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -6945,10 +7196,10 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C10" s="27">
         <v>43171</v>
@@ -6960,14 +7211,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F10" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="41" t="s">
+      <c r="F10" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -6975,10 +7226,10 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C11" s="28">
         <v>43176</v>
@@ -6990,12 +7241,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F11" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
+      <c r="F11" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -7003,10 +7254,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C12" s="27">
         <v>43178</v>
@@ -7018,8 +7269,8 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F12" s="30" t="s">
-        <v>45</v>
+      <c r="F12" s="33" t="s">
+        <v>48</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>12</v>
@@ -7037,10 +7288,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C13" s="28">
         <v>43185</v>
@@ -7052,8 +7303,8 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F13" s="30" t="s">
-        <v>45</v>
+      <c r="F13" s="33" t="s">
+        <v>48</v>
       </c>
       <c r="H13" s="34">
         <v>1000000</v>
@@ -7072,10 +7323,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C14" s="27">
         <v>43199</v>
@@ -7087,8 +7338,8 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F14" s="30" t="s">
-        <v>45</v>
+      <c r="F14" s="33" t="s">
+        <v>48</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -7097,10 +7348,10 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C15" s="28">
         <v>43211</v>
@@ -7112,8 +7363,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F15" s="30" t="s">
-        <v>45</v>
+      <c r="F15" s="33" t="s">
+        <v>48</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -7125,7 +7376,7 @@
         <v>69</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C16" s="27">
         <v>43185</v>
@@ -7137,8 +7388,8 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="F16" s="30" t="s">
-        <v>45</v>
+      <c r="F16" s="33" t="s">
+        <v>48</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -7147,484 +7398,396 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="28">
-        <v>43216</v>
-      </c>
-      <c r="D17" s="28">
-        <v>43220</v>
-      </c>
-      <c r="E17" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>45</v>
+        <v>70</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="33" t="s">
+        <v>48</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-    </row>
-    <row r="20" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-    </row>
-    <row r="21" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="58" t="s">
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="28">
+        <v>43216</v>
+      </c>
+      <c r="D25" s="28">
+        <v>43554</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="0"/>
+        <v>338</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B29" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54" t="s">
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="55"/>
-      <c r="G21" s="56" t="s">
+      <c r="F29" s="55"/>
+      <c r="G29" s="56" t="s">
         <v>7</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="59"/>
-      <c r="B22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="57"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="8">
-        <v>1</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0</v>
-      </c>
-      <c r="D23" s="8">
-        <v>4</v>
-      </c>
-      <c r="E23" s="8">
-        <v>2</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>4</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="9">
-        <v>2</v>
-      </c>
-      <c r="C24" s="9">
-        <v>3</v>
-      </c>
-      <c r="D24" s="9">
-        <v>5</v>
-      </c>
-      <c r="E24" s="10">
-        <v>1</v>
-      </c>
-      <c r="F24" s="10">
-        <v>2</v>
-      </c>
-      <c r="G24" s="11">
-        <v>3</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="8">
-        <v>3</v>
-      </c>
-      <c r="C25" s="8">
-        <v>4</v>
-      </c>
-      <c r="D25" s="8">
-        <v>3</v>
-      </c>
-      <c r="E25" s="8">
-        <v>2</v>
-      </c>
-      <c r="F25" s="8">
-        <v>1</v>
-      </c>
-      <c r="G25" s="8">
-        <v>2</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="9">
-        <v>5</v>
-      </c>
-      <c r="C26" s="9">
-        <v>8</v>
-      </c>
-      <c r="D26" s="9">
-        <v>1</v>
-      </c>
-      <c r="E26" s="10">
-        <v>1</v>
-      </c>
-      <c r="F26" s="10">
-        <v>0</v>
-      </c>
-      <c r="G26" s="11">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="8">
-        <v>8</v>
-      </c>
-      <c r="C27" s="8">
-        <v>6</v>
-      </c>
-      <c r="D27" s="8">
-        <v>4</v>
-      </c>
-      <c r="E27" s="8">
-        <v>0</v>
-      </c>
-      <c r="F27" s="8">
-        <v>3</v>
-      </c>
-      <c r="G27" s="8">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="9">
-        <v>5</v>
-      </c>
-      <c r="C28" s="9">
-        <v>0</v>
-      </c>
-      <c r="D28" s="9">
-        <v>0</v>
-      </c>
-      <c r="E28" s="10">
-        <v>2</v>
-      </c>
-      <c r="F28" s="10">
-        <v>0</v>
-      </c>
-      <c r="G28" s="11">
-        <v>2</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="8">
-        <v>6</v>
-      </c>
-      <c r="C29" s="8">
-        <v>4</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0</v>
-      </c>
-      <c r="E29" s="8">
-        <v>1</v>
-      </c>
-      <c r="F29" s="8">
-        <v>2</v>
-      </c>
-      <c r="G29" s="8">
-        <v>3</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="9">
-        <v>7</v>
-      </c>
-      <c r="C30" s="9">
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="59"/>
+      <c r="B30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="9">
-        <v>3</v>
-      </c>
-      <c r="E30" s="10">
-        <v>0</v>
-      </c>
-      <c r="F30" s="10">
-        <v>1</v>
-      </c>
-      <c r="G30" s="11">
-        <v>4</v>
-      </c>
+      <c r="E30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="57"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B31" s="8">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8">
         <v>0</v>
-      </c>
-      <c r="C31" s="8">
-        <v>2</v>
       </c>
       <c r="D31" s="8">
         <v>4</v>
       </c>
       <c r="E31" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G31" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B32" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C32" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" s="9">
         <v>5</v>
       </c>
       <c r="E32" s="10">
+        <v>1</v>
+      </c>
+      <c r="F32" s="10">
         <v>2</v>
       </c>
-      <c r="F32" s="10">
-        <v>0</v>
-      </c>
       <c r="G32" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B33" s="8">
         <v>3</v>
       </c>
       <c r="C33" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D33" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" s="8">
+        <v>1</v>
+      </c>
+      <c r="G33" s="8">
         <v>2</v>
-      </c>
-      <c r="G33" s="8">
-        <v>0</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B34" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C34" s="9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D34" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E34" s="10">
+        <v>1</v>
+      </c>
+      <c r="F34" s="10">
         <v>0</v>
       </c>
-      <c r="F34" s="10">
-        <v>1</v>
-      </c>
       <c r="G34" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B35" s="8">
+        <v>8</v>
+      </c>
+      <c r="C35" s="8">
+        <v>6</v>
+      </c>
+      <c r="D35" s="8">
+        <v>4</v>
+      </c>
+      <c r="E35" s="8">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8">
+        <v>3</v>
+      </c>
+      <c r="G35" s="8">
         <v>1</v>
-      </c>
-      <c r="C35" s="8">
-        <v>1</v>
-      </c>
-      <c r="D35" s="8">
-        <v>7</v>
-      </c>
-      <c r="E35" s="8">
-        <v>1</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0</v>
-      </c>
-      <c r="G35" s="8">
-        <v>2</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" s="9">
         <v>5</v>
@@ -7633,208 +7796,276 @@
         <v>0</v>
       </c>
       <c r="D36" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E36" s="10">
         <v>2</v>
       </c>
       <c r="F36" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B37" s="12">
-        <f t="shared" ref="B37:G37" si="1">SUM(B23:B36)</f>
-        <v>52</v>
-      </c>
-      <c r="C37" s="12">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="D37" s="12">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="E37" s="13">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="F37" s="13">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="G37" s="14">
-        <f t="shared" si="1"/>
-        <v>27</v>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="8">
+        <v>6</v>
+      </c>
+      <c r="C37" s="8">
+        <v>4</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1</v>
+      </c>
+      <c r="F37" s="8">
+        <v>2</v>
+      </c>
+      <c r="G37" s="8">
+        <v>3</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="G38" s="1"/>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="9">
+        <v>7</v>
+      </c>
+      <c r="C38" s="9">
+        <v>3</v>
+      </c>
+      <c r="D38" s="9">
+        <v>3</v>
+      </c>
+      <c r="E38" s="10">
+        <v>0</v>
+      </c>
+      <c r="F38" s="10">
+        <v>1</v>
+      </c>
+      <c r="G38" s="11">
+        <v>4</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="8">
+        <v>0</v>
+      </c>
+      <c r="C39" s="8">
+        <v>2</v>
+      </c>
+      <c r="D39" s="8">
+        <v>4</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1</v>
+      </c>
+      <c r="F39" s="8">
+        <v>3</v>
+      </c>
+      <c r="G39" s="8">
+        <v>2</v>
+      </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="9">
+        <v>4</v>
+      </c>
+      <c r="C40" s="9">
+        <v>4</v>
+      </c>
+      <c r="D40" s="9">
+        <v>5</v>
+      </c>
+      <c r="E40" s="10">
+        <v>2</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0</v>
+      </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="8">
+        <v>3</v>
+      </c>
+      <c r="C41" s="8">
+        <v>6</v>
+      </c>
+      <c r="D41" s="8">
+        <v>4</v>
+      </c>
+      <c r="E41" s="8">
+        <v>3</v>
+      </c>
+      <c r="F41" s="8">
+        <v>2</v>
+      </c>
+      <c r="G41" s="8">
+        <v>0</v>
+      </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="9">
+        <v>2</v>
+      </c>
+      <c r="C42" s="9">
+        <v>3</v>
+      </c>
+      <c r="D42" s="9">
+        <v>6</v>
+      </c>
+      <c r="E42" s="10">
+        <v>0</v>
+      </c>
+      <c r="F42" s="10">
+        <v>1</v>
+      </c>
+      <c r="G42" s="11">
+        <v>1</v>
+      </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="8">
+        <v>1</v>
+      </c>
+      <c r="C43" s="8">
+        <v>1</v>
+      </c>
+      <c r="D43" s="8">
+        <v>7</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1</v>
+      </c>
+      <c r="F43" s="8">
+        <v>0</v>
+      </c>
+      <c r="G43" s="8">
+        <v>2</v>
+      </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="9">
+        <v>5</v>
+      </c>
+      <c r="C44" s="9">
+        <v>0</v>
+      </c>
+      <c r="D44" s="9">
+        <v>2</v>
+      </c>
+      <c r="E44" s="10">
+        <v>2</v>
+      </c>
+      <c r="F44" s="10">
+        <v>1</v>
+      </c>
+      <c r="G44" s="11">
+        <v>3</v>
+      </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B45" s="12">
+        <f t="shared" ref="B45:G45" si="1">SUM(B31:B44)</f>
+        <v>52</v>
+      </c>
+      <c r="C45" s="12">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="D45" s="12">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="E45" s="13">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F45" s="13">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G45" s="14">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -7850,12 +8081,8 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -7871,10 +8098,6 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B49" s="1"/>
@@ -7892,10 +8115,6 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B50" s="1"/>
@@ -7913,10 +8132,6 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
@@ -7934,10 +8149,6 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
@@ -8485,16 +8696,184 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="H10:J11"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A2:F2"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>

--- a/Documents/Project-Management-Dashboard-FakeOrNot.xlsx
+++ b/Documents/Project-Management-Dashboard-FakeOrNot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mk194903/Desktop/Projects/ML/FakeOrNot/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1935BF-63D6-7F40-8934-7312EE81ECBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B896232F-E993-AA40-8E9E-6241CDE0941C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6917,12 +6917,12 @@
   <dimension ref="A1:T85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
     <col min="2" max="10" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Documents/Project-Management-Dashboard-FakeOrNot.xlsx
+++ b/Documents/Project-Management-Dashboard-FakeOrNot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mk194903/Desktop/Projects/ML/FakeOrNot/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B896232F-E993-AA40-8E9E-6241CDE0941C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B464140-DAEE-944D-953C-A191CAE222E7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="33480" windowHeight="19520" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Management Dashboard" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,6 @@
   </sheets>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -766,12 +761,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -794,6 +783,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -995,7 +990,7 @@
                   <c:v>43335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43165</c:v>
+                  <c:v>43349</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>43166</c:v>
@@ -1510,7 +1505,8 @@
         <c:axId val="2146145096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="43164"/>
+          <c:max val="43554"/>
+          <c:min val="43335"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -1530,7 +1526,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1562,7 +1558,7 @@
         <c:crossAx val="2145947768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5416,15 +5412,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>3</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>461819</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57729</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>103910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5453,16 +5449,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>196272</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>103908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>969817</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>23090</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>392544</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>34635</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5644,15 +5640,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>176645</xdr:rowOff>
+      <xdr:colOff>294409</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>107373</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>87746</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>176645</xdr:rowOff>
+      <xdr:colOff>191655</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>15009</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5771,14 +5767,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5788,7 +5784,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -6264,8 +6260,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q48" sqref="Q48"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6274,112 +6270,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
     </row>
     <row r="47" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
     </row>
     <row r="73" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="44" t="s">
+      <c r="A73" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="44"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="44"/>
-      <c r="H73" s="44"/>
-      <c r="I73" s="44"/>
-      <c r="J73" s="44"/>
-      <c r="K73" s="44"/>
-      <c r="L73" s="44"/>
-      <c r="M73" s="44"/>
-      <c r="N73" s="44"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
     </row>
     <row r="113" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="46" t="s">
+      <c r="A113" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B113" s="46"/>
-      <c r="C113" s="46"/>
-      <c r="D113" s="46"/>
-      <c r="E113" s="46"/>
-      <c r="F113" s="46"/>
-      <c r="G113" s="46"/>
-      <c r="H113" s="46"/>
-      <c r="I113" s="46"/>
-      <c r="J113" s="46"/>
-      <c r="K113" s="46"/>
-      <c r="L113" s="46"/>
-      <c r="M113" s="46"/>
-      <c r="N113" s="46"/>
+      <c r="B113" s="44"/>
+      <c r="C113" s="44"/>
+      <c r="D113" s="44"/>
+      <c r="E113" s="44"/>
+      <c r="F113" s="44"/>
+      <c r="G113" s="44"/>
+      <c r="H113" s="44"/>
+      <c r="I113" s="44"/>
+      <c r="J113" s="44"/>
+      <c r="K113" s="44"/>
+      <c r="L113" s="44"/>
+      <c r="M113" s="44"/>
+      <c r="N113" s="44"/>
     </row>
     <row r="153" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="45" t="s">
+      <c r="A153" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B153" s="45"/>
-      <c r="C153" s="45"/>
-      <c r="D153" s="45"/>
-      <c r="E153" s="45"/>
-      <c r="F153" s="45"/>
-      <c r="G153" s="45"/>
-      <c r="H153" s="45"/>
-      <c r="I153" s="45"/>
-      <c r="J153" s="45"/>
-      <c r="K153" s="45"/>
-      <c r="L153" s="45"/>
-      <c r="M153" s="45"/>
-      <c r="N153" s="45"/>
+      <c r="B153" s="43"/>
+      <c r="C153" s="43"/>
+      <c r="D153" s="43"/>
+      <c r="E153" s="43"/>
+      <c r="F153" s="43"/>
+      <c r="G153" s="43"/>
+      <c r="H153" s="43"/>
+      <c r="I153" s="43"/>
+      <c r="J153" s="43"/>
+      <c r="K153" s="43"/>
+      <c r="L153" s="43"/>
+      <c r="M153" s="43"/>
+      <c r="N153" s="43"/>
     </row>
     <row r="154" spans="1:14" s="16" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="15"/>
@@ -6394,11 +6390,11 @@
       <c r="J154" s="15"/>
     </row>
     <row r="155" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="47" t="s">
+      <c r="A155" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B155" s="47"/>
-      <c r="C155" s="47"/>
+      <c r="B155" s="45"/>
+      <c r="C155" s="45"/>
       <c r="D155" s="17" t="s">
         <v>56</v>
       </c>
@@ -6417,20 +6413,20 @@
       <c r="I155" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J155" s="47" t="s">
+      <c r="J155" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="K155" s="47"/>
-      <c r="L155" s="47"/>
-      <c r="M155" s="47"/>
-      <c r="N155" s="47"/>
+      <c r="K155" s="45"/>
+      <c r="L155" s="45"/>
+      <c r="M155" s="45"/>
+      <c r="N155" s="45"/>
     </row>
     <row r="156" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="40" t="s">
+      <c r="A156" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B156" s="40"/>
-      <c r="C156" s="40"/>
+      <c r="B156" s="38"/>
+      <c r="C156" s="38"/>
       <c r="D156" s="35" t="s">
         <v>38</v>
       </c>
@@ -6439,18 +6435,18 @@
       <c r="G156" s="37"/>
       <c r="H156" s="37"/>
       <c r="I156" s="37"/>
-      <c r="J156" s="38"/>
-      <c r="K156" s="38"/>
-      <c r="L156" s="38"/>
-      <c r="M156" s="38"/>
-      <c r="N156" s="38"/>
+      <c r="J156" s="47"/>
+      <c r="K156" s="47"/>
+      <c r="L156" s="47"/>
+      <c r="M156" s="47"/>
+      <c r="N156" s="47"/>
     </row>
     <row r="157" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="40" t="s">
+      <c r="A157" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B157" s="40"/>
-      <c r="C157" s="40"/>
+      <c r="B157" s="38"/>
+      <c r="C157" s="38"/>
       <c r="D157" s="35" t="s">
         <v>39</v>
       </c>
@@ -6459,18 +6455,18 @@
       <c r="G157" s="37"/>
       <c r="H157" s="37"/>
       <c r="I157" s="37"/>
-      <c r="J157" s="38"/>
-      <c r="K157" s="38"/>
-      <c r="L157" s="38"/>
-      <c r="M157" s="38"/>
-      <c r="N157" s="38"/>
+      <c r="J157" s="47"/>
+      <c r="K157" s="47"/>
+      <c r="L157" s="47"/>
+      <c r="M157" s="47"/>
+      <c r="N157" s="47"/>
     </row>
     <row r="158" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="40" t="s">
+      <c r="A158" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B158" s="40"/>
-      <c r="C158" s="40"/>
+      <c r="B158" s="38"/>
+      <c r="C158" s="38"/>
       <c r="D158" s="35" t="s">
         <v>40</v>
       </c>
@@ -6479,18 +6475,18 @@
       <c r="G158" s="37"/>
       <c r="H158" s="37"/>
       <c r="I158" s="37"/>
-      <c r="J158" s="38"/>
-      <c r="K158" s="38"/>
-      <c r="L158" s="38"/>
-      <c r="M158" s="38"/>
-      <c r="N158" s="38"/>
+      <c r="J158" s="47"/>
+      <c r="K158" s="47"/>
+      <c r="L158" s="47"/>
+      <c r="M158" s="47"/>
+      <c r="N158" s="47"/>
     </row>
     <row r="159" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="40" t="s">
+      <c r="A159" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B159" s="40"/>
-      <c r="C159" s="40"/>
+      <c r="B159" s="38"/>
+      <c r="C159" s="38"/>
       <c r="D159" s="35" t="s">
         <v>41</v>
       </c>
@@ -6499,18 +6495,18 @@
       <c r="G159" s="37"/>
       <c r="H159" s="37"/>
       <c r="I159" s="37"/>
-      <c r="J159" s="38"/>
-      <c r="K159" s="38"/>
-      <c r="L159" s="38"/>
-      <c r="M159" s="38"/>
-      <c r="N159" s="38"/>
+      <c r="J159" s="47"/>
+      <c r="K159" s="47"/>
+      <c r="L159" s="47"/>
+      <c r="M159" s="47"/>
+      <c r="N159" s="47"/>
     </row>
     <row r="160" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="40" t="s">
+      <c r="A160" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B160" s="40"/>
-      <c r="C160" s="40"/>
+      <c r="B160" s="38"/>
+      <c r="C160" s="38"/>
       <c r="D160" s="35" t="s">
         <v>38</v>
       </c>
@@ -6519,18 +6515,18 @@
       <c r="G160" s="37"/>
       <c r="H160" s="37"/>
       <c r="I160" s="37"/>
-      <c r="J160" s="38"/>
-      <c r="K160" s="38"/>
-      <c r="L160" s="38"/>
-      <c r="M160" s="38"/>
-      <c r="N160" s="38"/>
+      <c r="J160" s="47"/>
+      <c r="K160" s="47"/>
+      <c r="L160" s="47"/>
+      <c r="M160" s="47"/>
+      <c r="N160" s="47"/>
     </row>
     <row r="161" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="40" t="s">
+      <c r="A161" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B161" s="40"/>
-      <c r="C161" s="40"/>
+      <c r="B161" s="38"/>
+      <c r="C161" s="38"/>
       <c r="D161" s="35" t="s">
         <v>39</v>
       </c>
@@ -6539,18 +6535,18 @@
       <c r="G161" s="37"/>
       <c r="H161" s="37"/>
       <c r="I161" s="37"/>
-      <c r="J161" s="38"/>
-      <c r="K161" s="38"/>
-      <c r="L161" s="38"/>
-      <c r="M161" s="38"/>
-      <c r="N161" s="38"/>
+      <c r="J161" s="47"/>
+      <c r="K161" s="47"/>
+      <c r="L161" s="47"/>
+      <c r="M161" s="47"/>
+      <c r="N161" s="47"/>
     </row>
     <row r="162" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="40" t="s">
+      <c r="A162" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B162" s="40"/>
-      <c r="C162" s="40"/>
+      <c r="B162" s="38"/>
+      <c r="C162" s="38"/>
       <c r="D162" s="35" t="s">
         <v>40</v>
       </c>
@@ -6559,18 +6555,18 @@
       <c r="G162" s="37"/>
       <c r="H162" s="37"/>
       <c r="I162" s="37"/>
-      <c r="J162" s="38"/>
-      <c r="K162" s="38"/>
-      <c r="L162" s="38"/>
-      <c r="M162" s="38"/>
-      <c r="N162" s="38"/>
+      <c r="J162" s="47"/>
+      <c r="K162" s="47"/>
+      <c r="L162" s="47"/>
+      <c r="M162" s="47"/>
+      <c r="N162" s="47"/>
     </row>
     <row r="163" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="40" t="s">
+      <c r="A163" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B163" s="40"/>
-      <c r="C163" s="40"/>
+      <c r="B163" s="38"/>
+      <c r="C163" s="38"/>
       <c r="D163" s="35" t="s">
         <v>41</v>
       </c>
@@ -6579,18 +6575,18 @@
       <c r="G163" s="37"/>
       <c r="H163" s="37"/>
       <c r="I163" s="37"/>
-      <c r="J163" s="38"/>
-      <c r="K163" s="38"/>
-      <c r="L163" s="38"/>
-      <c r="M163" s="38"/>
-      <c r="N163" s="38"/>
+      <c r="J163" s="47"/>
+      <c r="K163" s="47"/>
+      <c r="L163" s="47"/>
+      <c r="M163" s="47"/>
+      <c r="N163" s="47"/>
     </row>
     <row r="164" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="40" t="s">
+      <c r="A164" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B164" s="40"/>
-      <c r="C164" s="40"/>
+      <c r="B164" s="38"/>
+      <c r="C164" s="38"/>
       <c r="D164" s="35" t="s">
         <v>42</v>
       </c>
@@ -6599,18 +6595,18 @@
       <c r="G164" s="37"/>
       <c r="H164" s="37"/>
       <c r="I164" s="37"/>
-      <c r="J164" s="38"/>
-      <c r="K164" s="38"/>
-      <c r="L164" s="38"/>
-      <c r="M164" s="38"/>
-      <c r="N164" s="38"/>
+      <c r="J164" s="47"/>
+      <c r="K164" s="47"/>
+      <c r="L164" s="47"/>
+      <c r="M164" s="47"/>
+      <c r="N164" s="47"/>
     </row>
     <row r="165" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="40" t="s">
+      <c r="A165" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B165" s="40"/>
-      <c r="C165" s="40"/>
+      <c r="B165" s="38"/>
+      <c r="C165" s="38"/>
       <c r="D165" s="35" t="s">
         <v>43</v>
       </c>
@@ -6619,18 +6615,18 @@
       <c r="G165" s="37"/>
       <c r="H165" s="37"/>
       <c r="I165" s="37"/>
-      <c r="J165" s="38"/>
-      <c r="K165" s="38"/>
-      <c r="L165" s="38"/>
-      <c r="M165" s="38"/>
-      <c r="N165" s="38"/>
+      <c r="J165" s="47"/>
+      <c r="K165" s="47"/>
+      <c r="L165" s="47"/>
+      <c r="M165" s="47"/>
+      <c r="N165" s="47"/>
     </row>
     <row r="166" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="40" t="s">
+      <c r="A166" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B166" s="40"/>
-      <c r="C166" s="40"/>
+      <c r="B166" s="38"/>
+      <c r="C166" s="38"/>
       <c r="D166" s="35" t="s">
         <v>42</v>
       </c>
@@ -6639,18 +6635,18 @@
       <c r="G166" s="37"/>
       <c r="H166" s="37"/>
       <c r="I166" s="37"/>
-      <c r="J166" s="38"/>
-      <c r="K166" s="38"/>
-      <c r="L166" s="38"/>
-      <c r="M166" s="38"/>
-      <c r="N166" s="38"/>
+      <c r="J166" s="47"/>
+      <c r="K166" s="47"/>
+      <c r="L166" s="47"/>
+      <c r="M166" s="47"/>
+      <c r="N166" s="47"/>
     </row>
     <row r="167" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="40" t="s">
+      <c r="A167" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B167" s="40"/>
-      <c r="C167" s="40"/>
+      <c r="B167" s="38"/>
+      <c r="C167" s="38"/>
       <c r="D167" s="35" t="s">
         <v>43</v>
       </c>
@@ -6659,18 +6655,18 @@
       <c r="G167" s="37"/>
       <c r="H167" s="37"/>
       <c r="I167" s="37"/>
-      <c r="J167" s="38"/>
-      <c r="K167" s="38"/>
-      <c r="L167" s="38"/>
-      <c r="M167" s="38"/>
-      <c r="N167" s="38"/>
+      <c r="J167" s="47"/>
+      <c r="K167" s="47"/>
+      <c r="L167" s="47"/>
+      <c r="M167" s="47"/>
+      <c r="N167" s="47"/>
     </row>
     <row r="168" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="40" t="s">
+      <c r="A168" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B168" s="40"/>
-      <c r="C168" s="40"/>
+      <c r="B168" s="38"/>
+      <c r="C168" s="38"/>
       <c r="D168" s="35" t="s">
         <v>42</v>
       </c>
@@ -6679,18 +6675,18 @@
       <c r="G168" s="37"/>
       <c r="H168" s="37"/>
       <c r="I168" s="37"/>
-      <c r="J168" s="38"/>
-      <c r="K168" s="38"/>
-      <c r="L168" s="38"/>
-      <c r="M168" s="38"/>
-      <c r="N168" s="38"/>
+      <c r="J168" s="47"/>
+      <c r="K168" s="47"/>
+      <c r="L168" s="47"/>
+      <c r="M168" s="47"/>
+      <c r="N168" s="47"/>
     </row>
     <row r="169" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="40" t="s">
+      <c r="A169" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B169" s="40"/>
-      <c r="C169" s="40"/>
+      <c r="B169" s="38"/>
+      <c r="C169" s="38"/>
       <c r="D169" s="35" t="s">
         <v>38</v>
       </c>
@@ -6699,96 +6695,117 @@
       <c r="G169" s="37"/>
       <c r="H169" s="37"/>
       <c r="I169" s="37"/>
-      <c r="J169" s="38"/>
-      <c r="K169" s="38"/>
-      <c r="L169" s="38"/>
-      <c r="M169" s="38"/>
-      <c r="N169" s="38"/>
+      <c r="J169" s="47"/>
+      <c r="K169" s="47"/>
+      <c r="L169" s="47"/>
+      <c r="M169" s="47"/>
+      <c r="N169" s="47"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A171" s="39" t="s">
+      <c r="A171" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B171" s="39"/>
-      <c r="C171" s="39"/>
-      <c r="D171" s="39"/>
-      <c r="E171" s="39"/>
-      <c r="F171" s="39"/>
-      <c r="G171" s="39"/>
-      <c r="H171" s="39"/>
-      <c r="I171" s="39"/>
-      <c r="J171" s="39"/>
-      <c r="K171" s="39"/>
-      <c r="L171" s="39"/>
-      <c r="M171" s="39"/>
-      <c r="N171" s="39"/>
+      <c r="B171" s="46"/>
+      <c r="C171" s="46"/>
+      <c r="D171" s="46"/>
+      <c r="E171" s="46"/>
+      <c r="F171" s="46"/>
+      <c r="G171" s="46"/>
+      <c r="H171" s="46"/>
+      <c r="I171" s="46"/>
+      <c r="J171" s="46"/>
+      <c r="K171" s="46"/>
+      <c r="L171" s="46"/>
+      <c r="M171" s="46"/>
+      <c r="N171" s="46"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A172" s="39"/>
-      <c r="B172" s="39"/>
-      <c r="C172" s="39"/>
-      <c r="D172" s="39"/>
-      <c r="E172" s="39"/>
-      <c r="F172" s="39"/>
-      <c r="G172" s="39"/>
-      <c r="H172" s="39"/>
-      <c r="I172" s="39"/>
-      <c r="J172" s="39"/>
-      <c r="K172" s="39"/>
-      <c r="L172" s="39"/>
-      <c r="M172" s="39"/>
-      <c r="N172" s="39"/>
+      <c r="A172" s="46"/>
+      <c r="B172" s="46"/>
+      <c r="C172" s="46"/>
+      <c r="D172" s="46"/>
+      <c r="E172" s="46"/>
+      <c r="F172" s="46"/>
+      <c r="G172" s="46"/>
+      <c r="H172" s="46"/>
+      <c r="I172" s="46"/>
+      <c r="J172" s="46"/>
+      <c r="K172" s="46"/>
+      <c r="L172" s="46"/>
+      <c r="M172" s="46"/>
+      <c r="N172" s="46"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A173" s="39"/>
-      <c r="B173" s="39"/>
-      <c r="C173" s="39"/>
-      <c r="D173" s="39"/>
-      <c r="E173" s="39"/>
-      <c r="F173" s="39"/>
-      <c r="G173" s="39"/>
-      <c r="H173" s="39"/>
-      <c r="I173" s="39"/>
-      <c r="J173" s="39"/>
-      <c r="K173" s="39"/>
-      <c r="L173" s="39"/>
-      <c r="M173" s="39"/>
-      <c r="N173" s="39"/>
+      <c r="A173" s="46"/>
+      <c r="B173" s="46"/>
+      <c r="C173" s="46"/>
+      <c r="D173" s="46"/>
+      <c r="E173" s="46"/>
+      <c r="F173" s="46"/>
+      <c r="G173" s="46"/>
+      <c r="H173" s="46"/>
+      <c r="I173" s="46"/>
+      <c r="J173" s="46"/>
+      <c r="K173" s="46"/>
+      <c r="L173" s="46"/>
+      <c r="M173" s="46"/>
+      <c r="N173" s="46"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A174" s="39"/>
-      <c r="B174" s="39"/>
-      <c r="C174" s="39"/>
-      <c r="D174" s="39"/>
-      <c r="E174" s="39"/>
-      <c r="F174" s="39"/>
-      <c r="G174" s="39"/>
-      <c r="H174" s="39"/>
-      <c r="I174" s="39"/>
-      <c r="J174" s="39"/>
-      <c r="K174" s="39"/>
-      <c r="L174" s="39"/>
-      <c r="M174" s="39"/>
-      <c r="N174" s="39"/>
+      <c r="A174" s="46"/>
+      <c r="B174" s="46"/>
+      <c r="C174" s="46"/>
+      <c r="D174" s="46"/>
+      <c r="E174" s="46"/>
+      <c r="F174" s="46"/>
+      <c r="G174" s="46"/>
+      <c r="H174" s="46"/>
+      <c r="I174" s="46"/>
+      <c r="J174" s="46"/>
+      <c r="K174" s="46"/>
+      <c r="L174" s="46"/>
+      <c r="M174" s="46"/>
+      <c r="N174" s="46"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A175" s="39"/>
-      <c r="B175" s="39"/>
-      <c r="C175" s="39"/>
-      <c r="D175" s="39"/>
-      <c r="E175" s="39"/>
-      <c r="F175" s="39"/>
-      <c r="G175" s="39"/>
-      <c r="H175" s="39"/>
-      <c r="I175" s="39"/>
-      <c r="J175" s="39"/>
-      <c r="K175" s="39"/>
-      <c r="L175" s="39"/>
-      <c r="M175" s="39"/>
-      <c r="N175" s="39"/>
+      <c r="A175" s="46"/>
+      <c r="B175" s="46"/>
+      <c r="C175" s="46"/>
+      <c r="D175" s="46"/>
+      <c r="E175" s="46"/>
+      <c r="F175" s="46"/>
+      <c r="G175" s="46"/>
+      <c r="H175" s="46"/>
+      <c r="I175" s="46"/>
+      <c r="J175" s="46"/>
+      <c r="K175" s="46"/>
+      <c r="L175" s="46"/>
+      <c r="M175" s="46"/>
+      <c r="N175" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="J156:N156"/>
+    <mergeCell ref="J157:N157"/>
+    <mergeCell ref="J158:N158"/>
+    <mergeCell ref="J159:N159"/>
+    <mergeCell ref="J160:N160"/>
+    <mergeCell ref="A171:N175"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="J161:N161"/>
+    <mergeCell ref="J162:N162"/>
+    <mergeCell ref="J163:N163"/>
+    <mergeCell ref="J164:N164"/>
+    <mergeCell ref="J165:N165"/>
+    <mergeCell ref="J166:N166"/>
+    <mergeCell ref="J167:N167"/>
+    <mergeCell ref="J168:N168"/>
+    <mergeCell ref="J169:N169"/>
     <mergeCell ref="A165:C165"/>
     <mergeCell ref="A166:C166"/>
     <mergeCell ref="A167:C167"/>
@@ -6805,27 +6822,6 @@
     <mergeCell ref="A158:C158"/>
     <mergeCell ref="A159:C159"/>
     <mergeCell ref="J155:N155"/>
-    <mergeCell ref="A171:N175"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="J161:N161"/>
-    <mergeCell ref="J162:N162"/>
-    <mergeCell ref="J163:N163"/>
-    <mergeCell ref="J164:N164"/>
-    <mergeCell ref="J165:N165"/>
-    <mergeCell ref="J166:N166"/>
-    <mergeCell ref="J167:N167"/>
-    <mergeCell ref="J168:N168"/>
-    <mergeCell ref="J169:N169"/>
-    <mergeCell ref="J156:N156"/>
-    <mergeCell ref="J157:N157"/>
-    <mergeCell ref="J158:N158"/>
-    <mergeCell ref="J159:N159"/>
-    <mergeCell ref="J160:N160"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
@@ -6917,7 +6913,7 @@
   <dimension ref="A1:T85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C6" sqref="C6:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7046,10 +7042,10 @@
         <v>81</v>
       </c>
       <c r="C5" s="28">
-        <v>43165</v>
+        <v>43349</v>
       </c>
       <c r="D5" s="28">
-        <v>43166</v>
+        <v>43350</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" ref="E5:E25" si="0">D5-C5</f>
@@ -7214,11 +7210,11 @@
       <c r="F10" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="43" t="s">
+      <c r="H10" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -7244,9 +7240,9 @@
       <c r="F11" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
